--- a/Database of shear behavior.xlsx
+++ b/Database of shear behavior.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2CC748-06C2-4EAC-BF6B-4A17677FE787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1199DA6-C4CD-4B23-A68B-70072739FB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -111,12 +111,16 @@
   <si>
     <t>B</t>
   </si>
+  <si>
+    <t>The content highlighted by red is the value after filled in, which has not be recorded in the original literature.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +280,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,8 +470,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -571,6 +596,15 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -702,9 +736,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1061,14 +1107,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y208"/>
+  <dimension ref="A1:Y212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD12" sqref="AD12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M218" sqref="M218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="18" max="18" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1122,7 +1171,7 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
@@ -1199,7 +1248,7 @@
       <c r="Q2">
         <v>22.191400000000002</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>6.6251400000000001E-4</v>
       </c>
       <c r="S2">
@@ -1276,7 +1325,7 @@
       <c r="Q3">
         <v>35.404600000000002</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>4.8192800000000001E-4</v>
       </c>
       <c r="S3">
@@ -1353,7 +1402,7 @@
       <c r="Q4">
         <v>22.530200000000001</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>4.8165000000000003E-4</v>
       </c>
       <c r="S4">
@@ -1430,7 +1479,7 @@
       <c r="Q5">
         <v>30.576699999999999</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>4.69536E-4</v>
       </c>
       <c r="S5">
@@ -1507,7 +1556,7 @@
       <c r="Q6">
         <v>30.407299999999999</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>4.2716999999999999E-4</v>
       </c>
       <c r="S6">
@@ -1584,7 +1633,7 @@
       <c r="Q7">
         <v>31.084900000000001</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>4.8165099999999999E-4</v>
       </c>
       <c r="S7">
@@ -1661,7 +1710,7 @@
       <c r="Q8">
         <v>31.508400000000002</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>2.7538699999999998E-4</v>
       </c>
       <c r="S8">
@@ -1738,7 +1787,7 @@
       <c r="Q9">
         <v>28.035699999999999</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="1">
         <v>5.5040000000000004E-4</v>
       </c>
       <c r="S9">
@@ -1815,7 +1864,7 @@
       <c r="Q10">
         <v>26.257000000000001</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>5.5077499999999998E-4</v>
       </c>
       <c r="S10">
@@ -1892,7 +1941,7 @@
       <c r="Q11">
         <v>25.071200000000001</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>4.58491E-4</v>
       </c>
       <c r="S11">
@@ -1969,7 +2018,7 @@
       <c r="Q12">
         <v>21.683199999999999</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="1">
         <v>4.13223E-4</v>
       </c>
       <c r="S12">
@@ -2046,7 +2095,7 @@
       <c r="Q13">
         <v>29.814399999999999</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>6.1220000000000003E-4</v>
       </c>
       <c r="S13">
@@ -2123,7 +2172,7 @@
       <c r="Q14">
         <v>34.981099999999998</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="1">
         <v>3.1E-4</v>
       </c>
       <c r="S14">
@@ -2200,7 +2249,7 @@
       <c r="Q15">
         <v>28.1204</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="1">
         <v>4.1340000000000002E-4</v>
       </c>
       <c r="S15">
@@ -2277,6 +2326,12 @@
       <c r="Q16">
         <v>24.562999999999999</v>
       </c>
+      <c r="R16" s="2">
+        <v>4.1564899999999998E-4</v>
+      </c>
+      <c r="S16" s="3">
+        <v>3.7731660159999998</v>
+      </c>
       <c r="T16">
         <v>3.0275229999999998E-3</v>
       </c>
@@ -2348,6 +2403,12 @@
       <c r="Q17">
         <v>24.562999999999999</v>
       </c>
+      <c r="R17" s="2">
+        <v>4.46761E-4</v>
+      </c>
+      <c r="S17" s="3">
+        <v>4.0101126340000004</v>
+      </c>
       <c r="T17">
         <v>3.5091739999999999E-3</v>
       </c>
@@ -2419,6 +2480,12 @@
       <c r="Q18">
         <v>24.562999999999999</v>
       </c>
+      <c r="R18" s="2">
+        <v>4.7959599999999999E-4</v>
+      </c>
+      <c r="S18" s="3">
+        <v>5.1133605119999999</v>
+      </c>
       <c r="T18">
         <v>4.9569710000000001E-3</v>
       </c>
@@ -2490,7 +2557,7 @@
       <c r="Q19">
         <v>23.377199999999998</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="1">
         <v>5.50459E-4</v>
       </c>
       <c r="S19">
@@ -2507,6 +2574,12 @@
       </c>
       <c r="W19">
         <v>6.5974621710000001</v>
+      </c>
+      <c r="X19" s="3">
+        <v>3.2378645999999997E-2</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>5.7970857699999998</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
@@ -2561,7 +2634,7 @@
       <c r="Q20">
         <v>23.377199999999998</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="1">
         <v>4.26162E-4</v>
       </c>
       <c r="S20">
@@ -2578,6 +2651,12 @@
       </c>
       <c r="W20">
         <v>6.4368603699999998</v>
+      </c>
+      <c r="X20" s="3">
+        <v>2.7404029999999999E-2</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>5.6820940459999996</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
@@ -2632,7 +2711,7 @@
       <c r="Q21">
         <v>28.8827</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1">
         <v>5.4024599999999998E-4</v>
       </c>
       <c r="S21">
@@ -2709,7 +2788,7 @@
       <c r="Q22">
         <v>28.8827</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="1">
         <v>5.1724099999999999E-4</v>
       </c>
       <c r="S22">
@@ -2786,7 +2865,7 @@
       <c r="Q23">
         <v>59.29</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="1">
         <v>3.44037E-4</v>
       </c>
       <c r="S23">
@@ -2803,6 +2882,12 @@
       </c>
       <c r="W23">
         <v>15.69131833</v>
+      </c>
+      <c r="X23" s="3">
+        <v>3.7799269000000003E-2</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>14.41875295</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -2857,7 +2942,7 @@
       <c r="Q24">
         <v>59.29</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="1">
         <v>4.12655E-4</v>
       </c>
       <c r="S24">
@@ -2934,7 +3019,7 @@
       <c r="Q25">
         <v>59.29</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="1">
         <v>2.7538699999999998E-4</v>
       </c>
       <c r="S25">
@@ -3011,7 +3096,7 @@
       <c r="Q26">
         <v>45.314500000000002</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="1">
         <v>2.7586199999999998E-4</v>
       </c>
       <c r="S26">
@@ -3028,6 +3113,12 @@
       </c>
       <c r="W26">
         <v>13.77682403</v>
+      </c>
+      <c r="X26" s="3">
+        <v>3.2260420999999997E-2</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>12.500373919999999</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
@@ -3082,7 +3173,7 @@
       <c r="Q27">
         <v>25.155899999999999</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="1">
         <v>2.29717E-4</v>
       </c>
       <c r="S27">
@@ -3159,7 +3250,7 @@
       <c r="Q28">
         <v>25.833500000000001</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="1">
         <v>4.1308099999999998E-4</v>
       </c>
       <c r="S28">
@@ -3236,7 +3327,7 @@
       <c r="Q29">
         <v>22.360800000000001</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="1">
         <v>3.2095300000000002E-4</v>
       </c>
       <c r="S29">
@@ -3253,6 +3344,12 @@
       </c>
       <c r="W29">
         <v>6.9677419350000003</v>
+      </c>
+      <c r="X29" s="3">
+        <v>2.4098838000000001E-2</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>6.3856948920000001</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
@@ -3307,7 +3404,7 @@
       <c r="Q30">
         <v>22.021999999999998</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="1">
         <v>3.4435299999999999E-4</v>
       </c>
       <c r="S30">
@@ -3384,7 +3481,7 @@
       <c r="Q31">
         <v>20.582100000000001</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="1">
         <v>2.9973199999999998E-4</v>
       </c>
       <c r="S31">
@@ -3461,7 +3558,7 @@
       <c r="Q32">
         <v>24.478300000000001</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="1">
         <v>3.9367299999999998E-4</v>
       </c>
       <c r="S32">
@@ -3538,7 +3635,7 @@
       <c r="Q33">
         <v>26.595800000000001</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="1">
         <v>4.3454700000000003E-4</v>
       </c>
       <c r="S33">
@@ -3615,7 +3712,7 @@
       <c r="Q34">
         <v>20.327999999999999</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="1">
         <v>2.2988300000000001E-4</v>
       </c>
       <c r="S34">
@@ -3692,7 +3789,7 @@
       <c r="Q35">
         <v>20.836200000000002</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="1">
         <v>3.4482799999999999E-4</v>
       </c>
       <c r="S35">
@@ -3769,7 +3866,7 @@
       <c r="Q36">
         <v>21.3444</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="1">
         <v>4.8209400000000002E-4</v>
       </c>
       <c r="S36">
@@ -3846,7 +3943,7 @@
       <c r="Q37">
         <v>21.5138</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="1">
         <v>3.66633E-4</v>
       </c>
       <c r="S37">
@@ -3923,7 +4020,7 @@
       <c r="Q38">
         <v>18.8034</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="1">
         <v>3.4435299999999999E-4</v>
       </c>
       <c r="S38">
@@ -4000,6 +4097,12 @@
       <c r="Q39">
         <v>48.787199999999999</v>
       </c>
+      <c r="R39" s="2">
+        <v>5.1035499999999999E-4</v>
+      </c>
+      <c r="S39" s="3">
+        <v>4.7316417150000003</v>
+      </c>
       <c r="T39">
         <v>4.1996560000000004E-3</v>
       </c>
@@ -4071,6 +4174,12 @@
       <c r="Q40">
         <v>47.940199999999997</v>
       </c>
+      <c r="R40" s="2">
+        <v>5.4211600000000004E-4</v>
+      </c>
+      <c r="S40" s="3">
+        <v>5.7004345540000001</v>
+      </c>
       <c r="T40">
         <v>4.3997000000000003E-3</v>
       </c>
@@ -4142,6 +4251,12 @@
       <c r="Q41">
         <v>46.754399999999997</v>
       </c>
+      <c r="R41" s="2">
+        <v>5.3560700000000001E-4</v>
+      </c>
+      <c r="S41" s="3">
+        <v>5.4935889280000003</v>
+      </c>
       <c r="T41">
         <v>5.7153769999999998E-3</v>
       </c>
@@ -4213,7 +4328,7 @@
       <c r="Q42">
         <v>35.319899999999997</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="1">
         <v>4.8165099999999999E-4</v>
       </c>
       <c r="S42">
@@ -4290,7 +4405,7 @@
       <c r="Q43">
         <v>31.084900000000001</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="1">
         <v>2.0785199999999999E-4</v>
       </c>
       <c r="S43">
@@ -4367,7 +4482,7 @@
       <c r="Q44">
         <v>34.218800000000002</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="1">
         <v>2.7538699999999998E-4</v>
       </c>
       <c r="S44">
@@ -4444,7 +4559,7 @@
       <c r="Q45">
         <v>34.388199999999998</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="1">
         <v>3.4435299999999999E-4</v>
       </c>
       <c r="S45">
@@ -4521,7 +4636,7 @@
       <c r="Q46">
         <v>35.4893</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="1">
         <v>3.6748500000000002E-4</v>
       </c>
       <c r="S46">
@@ -4598,7 +4713,7 @@
       <c r="Q47">
         <v>29.729700000000001</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="1">
         <v>3.6073600000000001E-4</v>
       </c>
       <c r="S47">
@@ -4675,7 +4790,7 @@
       <c r="Q48">
         <v>34.726999999999997</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="1">
         <v>3.2280200000000002E-4</v>
       </c>
       <c r="S48">
@@ -4752,7 +4867,7 @@
       <c r="Q49">
         <v>33.625900000000001</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="1">
         <v>4.34401E-4</v>
       </c>
       <c r="S49">
@@ -4829,7 +4944,7 @@
       <c r="Q50">
         <v>20.7515</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="1">
         <v>6.1926600000000004E-4</v>
       </c>
       <c r="S50">
@@ -4846,6 +4961,12 @@
       </c>
       <c r="W50">
         <v>8.903225806</v>
+      </c>
+      <c r="X50" s="3">
+        <v>3.9735565E-2</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>7.8780120870000001</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
@@ -4900,7 +5021,7 @@
       <c r="Q51">
         <v>35.065800000000003</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="1">
         <v>4.13223E-4</v>
       </c>
       <c r="S51">
@@ -4977,7 +5098,7 @@
       <c r="Q52">
         <v>34.049399999999999</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="1">
         <v>2.0689699999999999E-4</v>
       </c>
       <c r="S52">
@@ -5054,7 +5175,7 @@
       <c r="Q53">
         <v>34.049399999999999</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="1">
         <v>5.5077499999999998E-4</v>
       </c>
       <c r="S53">
@@ -5071,6 +5192,12 @@
       </c>
       <c r="W53">
         <v>9.3508306680000004</v>
+      </c>
+      <c r="X53" s="3">
+        <v>4.1668083000000002E-2</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>8.5271632820000001</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
@@ -5125,7 +5252,7 @@
       <c r="Q54">
         <v>34.049399999999999</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="1">
         <v>3.6850499999999998E-4</v>
       </c>
       <c r="S54">
@@ -5202,7 +5329,7 @@
       <c r="Q55">
         <v>34.049399999999999</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="1">
         <v>4.3876599999999999E-4</v>
       </c>
       <c r="S55">
@@ -5279,7 +5406,7 @@
       <c r="Q56">
         <v>25.41</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="1">
         <v>4.32803E-4</v>
       </c>
       <c r="S56">
@@ -5356,7 +5483,7 @@
       <c r="Q57">
         <v>25.41</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="1">
         <v>2.0654000000000001E-4</v>
       </c>
       <c r="S57">
@@ -5433,7 +5560,7 @@
       <c r="Q58">
         <v>25.41</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="1">
         <v>3.0098100000000002E-4</v>
       </c>
       <c r="S58">
@@ -5510,7 +5637,7 @@
       <c r="Q59">
         <v>18.718699999999998</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="1">
         <v>2.73973E-4</v>
       </c>
       <c r="S59">
@@ -5587,6 +5714,12 @@
       <c r="Q60">
         <v>29.645</v>
       </c>
+      <c r="R60" s="2">
+        <v>4.0101299999999998E-4</v>
+      </c>
+      <c r="S60" s="3">
+        <v>2.796414838</v>
+      </c>
       <c r="T60">
         <v>7.4884399999999999E-3</v>
       </c>
@@ -5658,7 +5791,7 @@
       <c r="Q61">
         <v>34.642299999999999</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="1">
         <v>4.13223E-4</v>
       </c>
       <c r="S61">
@@ -5735,7 +5868,7 @@
       <c r="Q62">
         <v>47.262599999999999</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="1">
         <v>2.9988900000000001E-4</v>
       </c>
       <c r="S62">
@@ -5812,7 +5945,7 @@
       <c r="Q63">
         <v>47.262599999999999</v>
       </c>
-      <c r="R63">
+      <c r="R63" s="1">
         <v>2.06422E-4</v>
       </c>
       <c r="S63">
@@ -5889,7 +6022,7 @@
       <c r="Q64">
         <v>47.262599999999999</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="1">
         <v>4.3341300000000001E-4</v>
       </c>
       <c r="S64">
@@ -5966,7 +6099,7 @@
       <c r="Q65">
         <v>47.262599999999999</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="1">
         <v>3.6296400000000002E-4</v>
       </c>
       <c r="S65">
@@ -6043,7 +6176,7 @@
       <c r="Q66">
         <v>23.6313</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="1">
         <v>4.29708E-4</v>
       </c>
       <c r="S66">
@@ -6120,6 +6253,12 @@
       <c r="Q67">
         <v>25.071200000000001</v>
       </c>
+      <c r="R67" s="2">
+        <v>3.1366400000000001E-4</v>
+      </c>
+      <c r="S67" s="3">
+        <v>2.59976407</v>
+      </c>
       <c r="T67">
         <v>8.1880730000000006E-3</v>
       </c>
@@ -6191,6 +6330,12 @@
       <c r="Q68">
         <v>23.546600000000002</v>
       </c>
+      <c r="R68" s="2">
+        <v>3.2006E-4</v>
+      </c>
+      <c r="S68" s="3">
+        <v>2.4789801969999998</v>
+      </c>
       <c r="T68">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -6202,6 +6347,12 @@
       </c>
       <c r="W68">
         <v>6.1884904089999999</v>
+      </c>
+      <c r="X68" s="3">
+        <v>2.5109446000000001E-2</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>5.4543222250000003</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
@@ -6256,7 +6407,7 @@
       <c r="Q69">
         <v>24.8171</v>
       </c>
-      <c r="R69">
+      <c r="R69" s="1">
         <v>3.6095300000000001E-4</v>
       </c>
       <c r="S69">
@@ -6333,6 +6484,12 @@
       <c r="Q70">
         <v>26.680499999999999</v>
       </c>
+      <c r="R70" s="2">
+        <v>3.0547700000000002E-4</v>
+      </c>
+      <c r="S70" s="3">
+        <v>2.4636452549999999</v>
+      </c>
       <c r="T70">
         <v>5.7620939999999997E-3</v>
       </c>
@@ -6404,7 +6561,7 @@
       <c r="Q71">
         <v>26.680499999999999</v>
       </c>
-      <c r="R71">
+      <c r="R71" s="1">
         <v>2.7586199999999998E-4</v>
       </c>
       <c r="S71">
@@ -6481,7 +6638,7 @@
       <c r="Q72">
         <v>25.833500000000001</v>
       </c>
-      <c r="R72">
+      <c r="R72" s="1">
         <v>4.1379299999999997E-4</v>
       </c>
       <c r="S72">
@@ -6558,6 +6715,12 @@
       <c r="Q73">
         <v>43.6205</v>
       </c>
+      <c r="R73" s="2">
+        <v>3.2306300000000001E-4</v>
+      </c>
+      <c r="S73" s="3">
+        <v>3.4994415399999999</v>
+      </c>
       <c r="T73">
         <v>1.1013993999999999E-2</v>
       </c>
@@ -6629,6 +6792,12 @@
       <c r="Q74">
         <v>69.284599999999998</v>
       </c>
+      <c r="R74" s="2">
+        <v>2.7739300000000002E-4</v>
+      </c>
+      <c r="S74" s="3">
+        <v>3.939840529</v>
+      </c>
       <c r="T74">
         <v>9.0199789999999992E-3</v>
       </c>
@@ -6700,6 +6869,12 @@
       <c r="Q75">
         <v>75.298299999999998</v>
       </c>
+      <c r="R75" s="2">
+        <v>2.6213300000000001E-4</v>
+      </c>
+      <c r="S75" s="3">
+        <v>4.4325079220000001</v>
+      </c>
       <c r="T75">
         <v>1.0031103E-2</v>
       </c>
@@ -6771,6 +6946,12 @@
       <c r="Q76">
         <v>45.483899999999998</v>
       </c>
+      <c r="R76" s="2">
+        <v>3.7209299999999999E-4</v>
+      </c>
+      <c r="S76" s="3">
+        <v>3.1721427339999999</v>
+      </c>
       <c r="T76">
         <v>3.9944899999999998E-3</v>
       </c>
@@ -6842,6 +7023,12 @@
       <c r="Q77">
         <v>70.893900000000002</v>
       </c>
+      <c r="R77" s="2">
+        <v>3.23503E-4</v>
+      </c>
+      <c r="S77" s="3">
+        <v>3.425723144</v>
+      </c>
       <c r="T77">
         <v>5.8326799999999998E-3</v>
       </c>
@@ -6913,7 +7100,7 @@
       <c r="Q78">
         <v>67.251800000000003</v>
       </c>
-      <c r="R78">
+      <c r="R78" s="1">
         <v>3.0975000000000002E-4</v>
       </c>
       <c r="S78">
@@ -6990,7 +7177,7 @@
       <c r="Q79">
         <v>18.0411</v>
       </c>
-      <c r="R79">
+      <c r="R79" s="1">
         <v>1.6122E-4</v>
       </c>
       <c r="S79">
@@ -7067,7 +7254,7 @@
       <c r="Q80">
         <v>22.869</v>
       </c>
-      <c r="R80">
+      <c r="R80" s="1">
         <v>3.4482799999999999E-4</v>
       </c>
       <c r="S80">
@@ -7144,7 +7331,7 @@
       <c r="Q81">
         <v>22.869</v>
       </c>
-      <c r="R81">
+      <c r="R81" s="1">
         <v>2.7586199999999998E-4</v>
       </c>
       <c r="S81">
@@ -7221,7 +7408,7 @@
       <c r="Q82">
         <v>20.412700000000001</v>
       </c>
-      <c r="R82">
+      <c r="R82" s="1">
         <v>3.3770300000000002E-4</v>
       </c>
       <c r="S82">
@@ -7238,6 +7425,12 @@
       </c>
       <c r="W82">
         <v>7.8775233140000003</v>
+      </c>
+      <c r="X82" s="3">
+        <v>5.9249726000000003E-2</v>
+      </c>
+      <c r="Y82" s="3">
+        <v>6.7714087469999997</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
@@ -7292,7 +7485,7 @@
       <c r="Q83">
         <v>23.377199999999998</v>
       </c>
-      <c r="R83">
+      <c r="R83" s="1">
         <v>5.49199E-4</v>
       </c>
       <c r="S83">
@@ -7309,6 +7502,12 @@
       </c>
       <c r="W83">
         <v>7.2790881890000003</v>
+      </c>
+      <c r="X83" s="3">
+        <v>2.3573209000000001E-2</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>6.3203725100000003</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
@@ -7363,7 +7562,7 @@
       <c r="Q84">
         <v>23.377199999999998</v>
       </c>
-      <c r="R84">
+      <c r="R84" s="1">
         <v>2.0689699999999999E-4</v>
       </c>
       <c r="S84">
@@ -7380,6 +7579,12 @@
       </c>
       <c r="W84">
         <v>11.48497854</v>
+      </c>
+      <c r="X84" s="3">
+        <v>2.2857104999999999E-2</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>10.39573487</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
@@ -7434,7 +7639,7 @@
       <c r="Q85">
         <v>23.377199999999998</v>
       </c>
-      <c r="R85">
+      <c r="R85" s="1">
         <v>2.0689699999999999E-4</v>
       </c>
       <c r="S85">
@@ -7451,6 +7656,12 @@
       </c>
       <c r="W85">
         <v>9.5689655170000005</v>
+      </c>
+      <c r="X85" s="3">
+        <v>2.2781391000000002E-2</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>8.3050800920000007</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
@@ -7505,7 +7716,7 @@
       <c r="Q86">
         <v>25.325299999999999</v>
       </c>
-      <c r="R86">
+      <c r="R86" s="1">
         <v>4.2624500000000001E-4</v>
       </c>
       <c r="S86">
@@ -7582,7 +7793,7 @@
       <c r="Q87">
         <v>30.6614</v>
       </c>
-      <c r="R87">
+      <c r="R87" s="1">
         <v>2.7538699999999998E-4</v>
       </c>
       <c r="S87">
@@ -7659,7 +7870,7 @@
       <c r="Q88">
         <v>26.426400000000001</v>
       </c>
-      <c r="R88">
+      <c r="R88" s="1">
         <v>2.7510300000000001E-4</v>
       </c>
       <c r="S88">
@@ -7736,7 +7947,7 @@
       <c r="Q89">
         <v>51.074100000000001</v>
       </c>
-      <c r="R89">
+      <c r="R89" s="1">
         <v>4.8192800000000001E-4</v>
       </c>
       <c r="S89">
@@ -7813,7 +8024,7 @@
       <c r="Q90">
         <v>27.951000000000001</v>
       </c>
-      <c r="R90">
+      <c r="R90" s="1">
         <v>4.1237100000000003E-4</v>
       </c>
       <c r="S90">
@@ -7890,7 +8101,7 @@
       <c r="Q91">
         <v>28.797999999999998</v>
       </c>
-      <c r="R91">
+      <c r="R91" s="1">
         <v>3.44037E-4</v>
       </c>
       <c r="S91">
@@ -7967,7 +8178,7 @@
       <c r="Q92">
         <v>29.645</v>
       </c>
-      <c r="R92">
+      <c r="R92" s="1">
         <v>4.1284399999999999E-4</v>
       </c>
       <c r="S92">
@@ -8044,7 +8255,7 @@
       <c r="Q93">
         <v>33.033000000000001</v>
       </c>
-      <c r="R93">
+      <c r="R93" s="1">
         <v>2.9825300000000001E-4</v>
       </c>
       <c r="S93">
@@ -8121,7 +8332,7 @@
       <c r="Q94">
         <v>32.186</v>
       </c>
-      <c r="R94">
+      <c r="R94" s="1">
         <v>3.44037E-4</v>
       </c>
       <c r="S94">
@@ -8198,6 +8409,12 @@
       <c r="Q95">
         <v>22.869</v>
       </c>
+      <c r="R95" s="2">
+        <v>4.5764599999999998E-4</v>
+      </c>
+      <c r="S95" s="3">
+        <v>3.3098653229999999</v>
+      </c>
       <c r="T95">
         <v>6.3961490000000003E-3</v>
       </c>
@@ -8269,7 +8486,7 @@
       <c r="Q96">
         <v>24.2242</v>
       </c>
-      <c r="R96">
+      <c r="R96" s="1">
         <v>5.50459E-4</v>
       </c>
       <c r="S96">
@@ -8346,7 +8563,7 @@
       <c r="Q97">
         <v>22.6996</v>
       </c>
-      <c r="R97">
+      <c r="R97" s="1">
         <v>4.1284399999999999E-4</v>
       </c>
       <c r="S97">
@@ -8423,7 +8640,7 @@
       <c r="Q98">
         <v>31.931899999999999</v>
       </c>
-      <c r="R98">
+      <c r="R98" s="1">
         <v>6.7531299999999998E-4</v>
       </c>
       <c r="S98">
@@ -8500,7 +8717,7 @@
       <c r="Q99">
         <v>16.347100000000001</v>
       </c>
-      <c r="R99">
+      <c r="R99" s="1">
         <v>4.7179299999999997E-4</v>
       </c>
       <c r="S99">
@@ -8577,7 +8794,7 @@
       <c r="Q100">
         <v>34.388199999999998</v>
       </c>
-      <c r="R100">
+      <c r="R100" s="1">
         <v>2.9102300000000001E-4</v>
       </c>
       <c r="S100">
@@ -8654,7 +8871,7 @@
       <c r="Q101">
         <v>25.918199999999999</v>
       </c>
-      <c r="R101">
+      <c r="R101" s="1">
         <v>3.6199499999999999E-4</v>
       </c>
       <c r="S101">
@@ -8731,7 +8948,7 @@
       <c r="Q102">
         <v>99.014300000000006</v>
       </c>
-      <c r="R102">
+      <c r="R102" s="1">
         <v>2.9150399999999999E-4</v>
       </c>
       <c r="S102">
@@ -8808,7 +9025,7 @@
       <c r="Q103">
         <v>99.014300000000006</v>
       </c>
-      <c r="R103">
+      <c r="R103" s="1">
         <v>5.50459E-4</v>
       </c>
       <c r="S103">
@@ -8885,7 +9102,7 @@
       <c r="Q104">
         <v>24.2242</v>
       </c>
-      <c r="R104">
+      <c r="R104" s="1">
         <v>2.9855399999999997E-4</v>
       </c>
       <c r="S104">
@@ -8962,7 +9179,7 @@
       <c r="Q105">
         <v>24.2242</v>
       </c>
-      <c r="R105">
+      <c r="R105" s="1">
         <v>3.4435299999999999E-4</v>
       </c>
       <c r="S105">
@@ -9039,7 +9256,7 @@
       <c r="Q106">
         <v>24.2242</v>
       </c>
-      <c r="R106">
+      <c r="R106" s="1">
         <v>2.9796599999999999E-4</v>
       </c>
       <c r="S106">
@@ -9056,6 +9273,12 @@
       </c>
       <c r="W106">
         <v>5.2564102559999997</v>
+      </c>
+      <c r="X106" s="3">
+        <v>3.4685106E-2</v>
+      </c>
+      <c r="Y106" s="3">
+        <v>4.600952478</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
@@ -9110,6 +9333,12 @@
       <c r="Q107">
         <v>20.327999999999999</v>
       </c>
+      <c r="R107" s="2">
+        <v>3.6018200000000002E-4</v>
+      </c>
+      <c r="S107" s="3">
+        <v>2.7737937270000002</v>
+      </c>
       <c r="T107">
         <v>4.1996560000000004E-3</v>
       </c>
@@ -9181,6 +9410,12 @@
       <c r="Q108">
         <v>19.481000000000002</v>
       </c>
+      <c r="R108" s="2">
+        <v>4.47601E-4</v>
+      </c>
+      <c r="S108" s="3">
+        <v>2.6718191290000002</v>
+      </c>
       <c r="T108">
         <v>1.0043656E-2</v>
       </c>
@@ -9192,6 +9427,12 @@
       </c>
       <c r="W108">
         <v>6.4982703549999998</v>
+      </c>
+      <c r="X108" s="3">
+        <v>4.5082085000000001E-2</v>
+      </c>
+      <c r="Y108" s="3">
+        <v>5.6599914260000004</v>
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
@@ -9246,6 +9487,12 @@
       <c r="Q109">
         <v>19.226900000000001</v>
       </c>
+      <c r="R109" s="2">
+        <v>3.8392199999999997E-4</v>
+      </c>
+      <c r="S109" s="3">
+        <v>1.945578663</v>
+      </c>
       <c r="T109">
         <v>9.9595110000000008E-3</v>
       </c>
@@ -9317,7 +9564,7 @@
       <c r="Q110">
         <v>22.869</v>
       </c>
-      <c r="R110">
+      <c r="R110" s="1">
         <v>2.0594999999999999E-4</v>
       </c>
       <c r="S110">
@@ -9394,6 +9641,12 @@
       <c r="Q111">
         <v>22.869</v>
       </c>
+      <c r="R111" s="2">
+        <v>4.5491599999999998E-4</v>
+      </c>
+      <c r="S111" s="3">
+        <v>3.2355569869999998</v>
+      </c>
       <c r="T111">
         <v>2.4793390000000001E-3</v>
       </c>
@@ -9465,6 +9718,12 @@
       <c r="Q112">
         <v>19.735099999999999</v>
       </c>
+      <c r="R112" s="2">
+        <v>4.5536699999999998E-4</v>
+      </c>
+      <c r="S112" s="3">
+        <v>3.6875813110000002</v>
+      </c>
       <c r="T112">
         <v>4.4660000000000004E-3</v>
       </c>
@@ -9536,6 +9795,12 @@
       <c r="Q113">
         <v>25.918199999999999</v>
       </c>
+      <c r="R113" s="2">
+        <v>3.7285200000000001E-4</v>
+      </c>
+      <c r="S113" s="3">
+        <v>3.5222417199999998</v>
+      </c>
       <c r="T113">
         <v>2.4499999999999999E-3</v>
       </c>
@@ -9607,6 +9872,12 @@
       <c r="Q114">
         <v>90.629000000000005</v>
       </c>
+      <c r="R114" s="2">
+        <v>3.6733600000000001E-4</v>
+      </c>
+      <c r="S114" s="3">
+        <v>7.2114288149999997</v>
+      </c>
       <c r="T114">
         <v>1.1445E-2</v>
       </c>
@@ -9618,6 +9889,12 @@
       </c>
       <c r="W114">
         <v>20.172000000000001</v>
+      </c>
+      <c r="X114" s="3">
+        <v>3.1568194000000001E-2</v>
+      </c>
+      <c r="Y114" s="3">
+        <v>18.880560840000001</v>
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
@@ -9672,7 +9949,7 @@
       <c r="Q115">
         <v>14.483700000000001</v>
       </c>
-      <c r="R115">
+      <c r="R115" s="1">
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="S115">
@@ -9749,7 +10026,7 @@
       <c r="Q116">
         <v>15.4154</v>
       </c>
-      <c r="R116">
+      <c r="R116" s="1">
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="S116">
@@ -9766,6 +10043,12 @@
       </c>
       <c r="W116">
         <v>8.2692300000000003</v>
+      </c>
+      <c r="X116" s="3">
+        <v>7.4323354999999994E-2</v>
+      </c>
+      <c r="Y116" s="3">
+        <v>7.0025057530000003</v>
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
@@ -9820,7 +10103,7 @@
       <c r="Q117">
         <v>15.9236</v>
       </c>
-      <c r="R117">
+      <c r="R117" s="1">
         <v>7.1699999999999997E-4</v>
       </c>
       <c r="S117">
@@ -9837,6 +10120,12 @@
       </c>
       <c r="W117">
         <v>9.3269199999999994</v>
+      </c>
+      <c r="X117" s="3">
+        <v>6.6577922999999997E-2</v>
+      </c>
+      <c r="Y117" s="3">
+        <v>7.9147494480000002</v>
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
@@ -9891,7 +10180,7 @@
       <c r="Q118">
         <v>17.4482</v>
       </c>
-      <c r="R118">
+      <c r="R118" s="1">
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="S118">
@@ -9908,6 +10197,12 @@
       </c>
       <c r="W118">
         <v>7.9573099999999997</v>
+      </c>
+      <c r="X118" s="3">
+        <v>6.5479924999999994E-2</v>
+      </c>
+      <c r="Y118" s="3">
+        <v>6.6678378179999997</v>
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
@@ -9962,7 +10257,7 @@
       <c r="Q119">
         <v>16.431799999999999</v>
       </c>
-      <c r="R119">
+      <c r="R119" s="1">
         <v>6.78E-4</v>
       </c>
       <c r="S119">
@@ -10039,7 +10334,7 @@
       <c r="Q120">
         <v>37.776200000000003</v>
       </c>
-      <c r="R120">
+      <c r="R120" s="1">
         <v>2.9149999999999998E-4</v>
       </c>
       <c r="S120">
@@ -10116,7 +10411,7 @@
       <c r="Q121">
         <v>23.377199999999998</v>
       </c>
-      <c r="R121">
+      <c r="R121" s="1">
         <v>5.5524999999999997E-4</v>
       </c>
       <c r="S121">
@@ -10133,6 +10428,12 @@
       </c>
       <c r="W121">
         <v>10.321999999999999</v>
+      </c>
+      <c r="X121" s="3">
+        <v>3.1670506000000001E-2</v>
+      </c>
+      <c r="Y121" s="3">
+        <v>9.1597707840000009</v>
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
@@ -10187,7 +10488,7 @@
       <c r="Q122">
         <v>70.131600000000006</v>
       </c>
-      <c r="R122">
+      <c r="R122" s="1">
         <v>2.7E-4</v>
       </c>
       <c r="S122">
@@ -10204,6 +10505,12 @@
       </c>
       <c r="W122">
         <v>19.8065</v>
+      </c>
+      <c r="X122" s="3">
+        <v>1.2917616999999999E-2</v>
+      </c>
+      <c r="Y122" s="3">
+        <v>18.27114358</v>
       </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
@@ -10258,7 +10565,7 @@
       <c r="Q123">
         <v>70.131600000000006</v>
       </c>
-      <c r="R123">
+      <c r="R123" s="1">
         <v>2.7138999999999999E-4</v>
       </c>
       <c r="S123">
@@ -10275,6 +10582,12 @@
       </c>
       <c r="W123">
         <v>17.048300000000001</v>
+      </c>
+      <c r="X123" s="3">
+        <v>2.53E-2</v>
+      </c>
+      <c r="Y123" s="3">
+        <v>15.751132739999999</v>
       </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.2">
@@ -10329,7 +10642,7 @@
       <c r="Q124">
         <v>36.837504000000003</v>
       </c>
-      <c r="R124">
+      <c r="R124" s="1">
         <v>2.5999999999999998E-4</v>
       </c>
       <c r="S124">
@@ -10346,6 +10659,12 @@
       </c>
       <c r="W124">
         <v>13.775</v>
+      </c>
+      <c r="X124" s="3">
+        <v>1.8273022999999999E-2</v>
+      </c>
+      <c r="Y124" s="3">
+        <v>12.63591448</v>
       </c>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.2">
@@ -10400,7 +10719,7 @@
       <c r="Q125">
         <v>36.837504000000003</v>
       </c>
-      <c r="R125">
+      <c r="R125" s="1">
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="S125">
@@ -10417,6 +10736,12 @@
       </c>
       <c r="W125">
         <v>11.05769231</v>
+      </c>
+      <c r="X125" s="3">
+        <v>1.5597853E-2</v>
+      </c>
+      <c r="Y125" s="3">
+        <v>10.0183728</v>
       </c>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.2">
@@ -10471,7 +10796,7 @@
       <c r="Q126">
         <v>36.837504000000003</v>
       </c>
-      <c r="R126">
+      <c r="R126" s="1">
         <v>2.5999999999999998E-4</v>
       </c>
       <c r="S126">
@@ -10488,6 +10813,12 @@
       </c>
       <c r="W126">
         <v>11.11923077</v>
+      </c>
+      <c r="X126" s="3">
+        <v>1.9037069E-2</v>
+      </c>
+      <c r="Y126" s="3">
+        <v>10.20731333</v>
       </c>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
@@ -10539,7 +10870,7 @@
       <c r="Q127">
         <v>36.32</v>
       </c>
-      <c r="R127">
+      <c r="R127" s="1">
         <v>4.2499999999999998E-4</v>
       </c>
       <c r="S127">
@@ -10616,7 +10947,7 @@
       <c r="Q128">
         <v>22.78</v>
       </c>
-      <c r="R128">
+      <c r="R128" s="1">
         <v>3.5599999999999998E-4</v>
       </c>
       <c r="S128">
@@ -10693,7 +11024,7 @@
       <c r="Q129">
         <v>19.43</v>
       </c>
-      <c r="R129">
+      <c r="R129" s="1">
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="S129">
@@ -10770,7 +11101,7 @@
       <c r="Q130">
         <v>20.100000000000001</v>
       </c>
-      <c r="R130">
+      <c r="R130" s="1">
         <v>1.5295199999999999E-3</v>
       </c>
       <c r="S130">
@@ -10847,7 +11178,7 @@
       <c r="Q131">
         <v>33.56</v>
       </c>
-      <c r="R131">
+      <c r="R131" s="1">
         <v>2.9490000000000001E-4</v>
       </c>
       <c r="S131">
@@ -10924,7 +11255,7 @@
       <c r="Q132">
         <v>29.84</v>
       </c>
-      <c r="R132">
+      <c r="R132" s="1">
         <v>2.2118999999999999E-4</v>
       </c>
       <c r="S132">
@@ -11001,6 +11332,12 @@
       <c r="Q133">
         <v>20.9</v>
       </c>
+      <c r="R133" s="2">
+        <v>3.5630200000000002E-4</v>
+      </c>
+      <c r="S133" s="3">
+        <v>2.9815562500000001</v>
+      </c>
       <c r="T133">
         <v>3.2799999999999999E-3</v>
       </c>
@@ -11072,6 +11409,12 @@
       <c r="Q134">
         <v>26.1</v>
       </c>
+      <c r="R134" s="2">
+        <v>3.3248700000000002E-4</v>
+      </c>
+      <c r="S134" s="3">
+        <v>3.368443531</v>
+      </c>
       <c r="T134">
         <v>1.4035600000000001E-3</v>
       </c>
@@ -11143,6 +11486,12 @@
       <c r="Q135">
         <v>21.3</v>
       </c>
+      <c r="R135" s="2">
+        <v>3.3845899999999999E-4</v>
+      </c>
+      <c r="S135" s="3">
+        <v>3.329242684</v>
+      </c>
       <c r="T135">
         <v>4.4600000000000004E-3</v>
       </c>
@@ -11214,6 +11563,12 @@
       <c r="Q136">
         <v>20.8</v>
       </c>
+      <c r="R136" s="2">
+        <v>3.5807299999999999E-4</v>
+      </c>
+      <c r="S136" s="3">
+        <v>3.949143812</v>
+      </c>
       <c r="T136">
         <v>1.717E-3</v>
       </c>
@@ -11285,6 +11640,12 @@
       <c r="Q137">
         <v>46.17</v>
       </c>
+      <c r="R137" s="2">
+        <v>4.3782700000000001E-4</v>
+      </c>
+      <c r="S137" s="3">
+        <v>3.7739117050000002</v>
+      </c>
       <c r="T137">
         <v>2.1800000000000001E-3</v>
       </c>
@@ -11356,7 +11717,7 @@
       <c r="Q138">
         <v>46.17</v>
       </c>
-      <c r="R138">
+      <c r="R138" s="1">
         <v>3.3500000000000001E-4</v>
       </c>
       <c r="S138">
@@ -11433,7 +11794,7 @@
       <c r="Q139">
         <v>46.17</v>
       </c>
-      <c r="R139">
+      <c r="R139" s="1">
         <v>3.6549999999999999E-4</v>
       </c>
       <c r="S139">
@@ -11510,7 +11871,7 @@
       <c r="Q140">
         <v>46.17</v>
       </c>
-      <c r="R140">
+      <c r="R140" s="1">
         <v>2.4220000000000001E-4</v>
       </c>
       <c r="S140">
@@ -11527,6 +11888,12 @@
       </c>
       <c r="W140">
         <v>8.3974100000000007</v>
+      </c>
+      <c r="X140" s="3">
+        <v>1.5473722000000001E-2</v>
+      </c>
+      <c r="Y140" s="3">
+        <v>7.5265661169999998</v>
       </c>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
@@ -11581,7 +11948,7 @@
       <c r="Q141">
         <v>46.17</v>
       </c>
-      <c r="R141">
+      <c r="R141" s="1">
         <v>1.8814799999999999E-4</v>
       </c>
       <c r="S141">
@@ -11658,6 +12025,12 @@
       <c r="Q142">
         <v>35.369999999999997</v>
       </c>
+      <c r="R142" s="2">
+        <v>3.3193900000000001E-4</v>
+      </c>
+      <c r="S142" s="3">
+        <v>2.4271698169999998</v>
+      </c>
       <c r="T142">
         <v>1.1000000000000001E-3</v>
       </c>
@@ -11729,6 +12102,12 @@
       <c r="Q143">
         <v>35.369999999999997</v>
       </c>
+      <c r="R143" s="2">
+        <v>3.5907000000000002E-4</v>
+      </c>
+      <c r="S143" s="3">
+        <v>3.3736972239999998</v>
+      </c>
       <c r="T143">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -11800,6 +12179,12 @@
       <c r="Q144">
         <v>35.369999999999997</v>
       </c>
+      <c r="R144" s="2">
+        <v>3.3688000000000001E-4</v>
+      </c>
+      <c r="S144" s="3">
+        <v>2.5183362159999998</v>
+      </c>
       <c r="T144">
         <v>1.2999999999999999E-3</v>
       </c>
@@ -11871,6 +12256,12 @@
       <c r="Q145">
         <v>35.369999999999997</v>
       </c>
+      <c r="R145" s="2">
+        <v>3.0565900000000001E-4</v>
+      </c>
+      <c r="S145" s="3">
+        <v>2.4083128469999999</v>
+      </c>
       <c r="T145">
         <v>1.1000000000000001E-3</v>
       </c>
@@ -11942,6 +12333,12 @@
       <c r="Q146">
         <v>35.369999999999997</v>
       </c>
+      <c r="R146" s="2">
+        <v>2.7285500000000002E-4</v>
+      </c>
+      <c r="S146" s="3">
+        <v>2.2678407169999999</v>
+      </c>
       <c r="T146">
         <v>1E-3</v>
       </c>
@@ -12013,6 +12410,12 @@
       <c r="Q147">
         <v>35.369999999999997</v>
       </c>
+      <c r="R147" s="2">
+        <v>3.56194E-4</v>
+      </c>
+      <c r="S147" s="3">
+        <v>2.514466536</v>
+      </c>
       <c r="T147">
         <v>1.8E-3</v>
       </c>
@@ -12084,6 +12487,12 @@
       <c r="Q148">
         <v>36.450000000000003</v>
       </c>
+      <c r="R148" s="2">
+        <v>3.3014299999999997E-4</v>
+      </c>
+      <c r="S148" s="3">
+        <v>2.5472278579999998</v>
+      </c>
       <c r="T148">
         <v>1.8E-3</v>
       </c>
@@ -12155,6 +12564,12 @@
       <c r="Q149">
         <v>36.450000000000003</v>
       </c>
+      <c r="R149" s="2">
+        <v>3.4515000000000001E-4</v>
+      </c>
+      <c r="S149" s="3">
+        <v>2.9594339999999999</v>
+      </c>
       <c r="T149">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -12226,6 +12641,12 @@
       <c r="Q150">
         <v>36.450000000000003</v>
       </c>
+      <c r="R150" s="2">
+        <v>3.2985300000000001E-4</v>
+      </c>
+      <c r="S150" s="3">
+        <v>2.5762656650000002</v>
+      </c>
       <c r="T150">
         <v>1.6999999999999999E-3</v>
       </c>
@@ -12297,6 +12718,12 @@
       <c r="Q151">
         <v>35.369999999999997</v>
       </c>
+      <c r="R151" s="2">
+        <v>3.3762499999999998E-4</v>
+      </c>
+      <c r="S151" s="3">
+        <v>2.4054656059999999</v>
+      </c>
       <c r="T151">
         <v>1.2999999999999999E-3</v>
       </c>
@@ -12368,6 +12795,12 @@
       <c r="Q152">
         <v>35.369999999999997</v>
       </c>
+      <c r="R152" s="2">
+        <v>3.16989E-4</v>
+      </c>
+      <c r="S152" s="3">
+        <v>2.0094211460000002</v>
+      </c>
       <c r="T152">
         <v>1.2999999999999999E-3</v>
       </c>
@@ -12439,6 +12872,12 @@
       <c r="Q153">
         <v>35.369999999999997</v>
       </c>
+      <c r="R153" s="2">
+        <v>3.2333399999999999E-4</v>
+      </c>
+      <c r="S153" s="3">
+        <v>2.2781608530000002</v>
+      </c>
       <c r="T153">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -12510,6 +12949,12 @@
       <c r="Q154">
         <v>36.450000000000003</v>
       </c>
+      <c r="R154" s="2">
+        <v>3.40119E-4</v>
+      </c>
+      <c r="S154" s="3">
+        <v>2.6331997650000001</v>
+      </c>
       <c r="T154">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -12581,6 +13026,12 @@
       <c r="Q155">
         <v>36.450000000000003</v>
       </c>
+      <c r="R155" s="2">
+        <v>3.2641400000000002E-4</v>
+      </c>
+      <c r="S155" s="3">
+        <v>2.436934946</v>
+      </c>
       <c r="T155">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -12652,6 +13103,12 @@
       <c r="Q156">
         <v>35.369999999999997</v>
       </c>
+      <c r="R156" s="2">
+        <v>3.1950099999999998E-4</v>
+      </c>
+      <c r="S156" s="3">
+        <v>2.24299808</v>
+      </c>
       <c r="T156">
         <v>1.6999999999999999E-3</v>
       </c>
@@ -12723,17 +13180,29 @@
       <c r="Q157">
         <v>36.903599999999997</v>
       </c>
-      <c r="R157">
+      <c r="R157" s="1">
         <v>5.8E-4</v>
       </c>
       <c r="S157">
         <v>6.5242500000000003</v>
       </c>
+      <c r="T157" s="3">
+        <v>7.9462300000000005E-4</v>
+      </c>
+      <c r="U157" s="3">
+        <v>8.2138276040000004</v>
+      </c>
       <c r="V157">
         <v>1.6100000000000001E-3</v>
       </c>
       <c r="W157">
         <v>8.8747500000000006</v>
+      </c>
+      <c r="X157" s="3">
+        <v>8.5362540000000001E-3</v>
+      </c>
+      <c r="Y157" s="3">
+        <v>8.2821373610000002</v>
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
@@ -12788,17 +13257,29 @@
       <c r="Q158">
         <v>36.903599999999997</v>
       </c>
-      <c r="R158">
+      <c r="R158" s="1">
         <v>6.6E-4</v>
       </c>
       <c r="S158">
         <v>4.9356499999999999</v>
       </c>
+      <c r="T158" s="3">
+        <v>1.0232150000000001E-3</v>
+      </c>
+      <c r="U158" s="3">
+        <v>6.5069271579999999</v>
+      </c>
       <c r="V158">
         <v>3.13E-3</v>
       </c>
       <c r="W158">
         <v>7.19475</v>
+      </c>
+      <c r="X158" s="3">
+        <v>8.4846260000000003E-3</v>
+      </c>
+      <c r="Y158" s="3">
+        <v>6.5576384819999998</v>
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
@@ -12853,17 +13334,29 @@
       <c r="Q159">
         <v>36.903599999999997</v>
       </c>
-      <c r="R159">
+      <c r="R159" s="1">
         <v>7.2999999999999996E-4</v>
       </c>
       <c r="S159">
         <v>4.6951749999999999</v>
       </c>
+      <c r="T159" s="3">
+        <v>1.60589E-3</v>
+      </c>
+      <c r="U159" s="3">
+        <v>7.0236114650000001</v>
+      </c>
       <c r="V159">
         <v>4.9399999999999999E-3</v>
       </c>
       <c r="W159">
         <v>7.8371750000000002</v>
+      </c>
+      <c r="X159" s="3">
+        <v>1.1491173E-2</v>
+      </c>
+      <c r="Y159" s="3">
+        <v>7.271153333</v>
       </c>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
@@ -12918,7 +13411,7 @@
       <c r="Q160">
         <v>26.7652</v>
       </c>
-      <c r="R160">
+      <c r="R160" s="1">
         <v>2.7900000000000001E-4</v>
       </c>
       <c r="S160">
@@ -12935,6 +13428,12 @@
       </c>
       <c r="W160">
         <v>7.8632499999999999</v>
+      </c>
+      <c r="X160" s="3">
+        <v>2.6910143000000001E-2</v>
+      </c>
+      <c r="Y160" s="3">
+        <v>7.0375486980000002</v>
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
@@ -12989,7 +13488,7 @@
       <c r="Q161">
         <v>26.7652</v>
       </c>
-      <c r="R161">
+      <c r="R161" s="1">
         <v>4.566E-5</v>
       </c>
       <c r="S161">
@@ -13006,6 +13505,12 @@
       </c>
       <c r="W161">
         <v>9.0243900000000004</v>
+      </c>
+      <c r="X161" s="3">
+        <v>2.2933282999999999E-2</v>
+      </c>
+      <c r="Y161" s="3">
+        <v>8.1344734229999993</v>
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.2">
@@ -13060,7 +13565,7 @@
       <c r="Q162">
         <v>27.696899999999999</v>
       </c>
-      <c r="R162">
+      <c r="R162" s="1">
         <v>2.6659999999999998E-4</v>
       </c>
       <c r="S162">
@@ -13077,6 +13582,12 @@
       </c>
       <c r="W162">
         <v>8.3871000000000002</v>
+      </c>
+      <c r="X162" s="3">
+        <v>2.0705624999999998E-2</v>
+      </c>
+      <c r="Y162" s="3">
+        <v>7.3689567340000002</v>
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.2">
@@ -13131,7 +13642,7 @@
       <c r="Q163">
         <v>26.7652</v>
       </c>
-      <c r="R163">
+      <c r="R163" s="1">
         <v>6.8490000000000003E-5</v>
       </c>
       <c r="S163">
@@ -13148,6 +13659,12 @@
       </c>
       <c r="W163">
         <v>8.8617899999999992</v>
+      </c>
+      <c r="X163" s="3">
+        <v>2.6592760999999999E-2</v>
+      </c>
+      <c r="Y163" s="3">
+        <v>7.980928821</v>
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
@@ -13202,7 +13719,7 @@
       <c r="Q164">
         <v>27.696899999999999</v>
       </c>
-      <c r="R164">
+      <c r="R164" s="1">
         <v>1.3215899999999999E-4</v>
       </c>
       <c r="S164">
@@ -13219,6 +13736,12 @@
       </c>
       <c r="W164">
         <v>9.2741900000000008</v>
+      </c>
+      <c r="X164" s="3">
+        <v>2.3104497000000002E-2</v>
+      </c>
+      <c r="Y164" s="3">
+        <v>8.1109895119999997</v>
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.2">
@@ -13273,7 +13796,7 @@
       <c r="Q165">
         <v>26.426400000000001</v>
       </c>
-      <c r="R165">
+      <c r="R165" s="1">
         <v>7.9000000000000001E-4</v>
       </c>
       <c r="S165">
@@ -13350,7 +13873,7 @@
       <c r="Q166">
         <v>24.562999999999999</v>
       </c>
-      <c r="R166">
+      <c r="R166" s="1">
         <v>5.0104000000000001E-4</v>
       </c>
       <c r="S166">
@@ -13427,7 +13950,7 @@
       <c r="Q167">
         <v>20.9209</v>
       </c>
-      <c r="R167">
+      <c r="R167" s="1">
         <v>4.1075999999999998E-4</v>
       </c>
       <c r="S167">
@@ -13504,7 +14027,7 @@
       <c r="Q168">
         <v>20.582100000000001</v>
       </c>
-      <c r="R168">
+      <c r="R168" s="1">
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="S168">
@@ -13581,7 +14104,7 @@
       <c r="Q169">
         <v>21.005600000000001</v>
       </c>
-      <c r="R169">
+      <c r="R169" s="1">
         <v>1.1363599999999999E-4</v>
       </c>
       <c r="S169">
@@ -13658,7 +14181,7 @@
       <c r="Q170">
         <v>23.123100000000001</v>
       </c>
-      <c r="R170">
+      <c r="R170" s="1">
         <v>5.6800000000000004E-4</v>
       </c>
       <c r="S170">
@@ -13735,7 +14258,7 @@
       <c r="Q171">
         <v>28.035699999999999</v>
       </c>
-      <c r="R171">
+      <c r="R171" s="1">
         <v>1.7249999999999999E-4</v>
       </c>
       <c r="S171">
@@ -13812,7 +14335,7 @@
       <c r="Q172">
         <v>28.797999999999998</v>
       </c>
-      <c r="R172">
+      <c r="R172" s="1">
         <v>2.5230000000000001E-4</v>
       </c>
       <c r="S172">
@@ -13889,7 +14412,7 @@
       <c r="Q173">
         <v>28.797999999999998</v>
       </c>
-      <c r="R173">
+      <c r="R173" s="1">
         <v>1.4414000000000001E-4</v>
       </c>
       <c r="S173">
@@ -13966,7 +14489,7 @@
       <c r="Q174">
         <v>26.849900000000002</v>
       </c>
-      <c r="R174">
+      <c r="R174" s="1">
         <v>2.1579999999999999E-4</v>
       </c>
       <c r="S174">
@@ -14043,7 +14566,7 @@
       <c r="Q175">
         <v>26.849900000000002</v>
       </c>
-      <c r="R175">
+      <c r="R175" s="1">
         <v>2.6361199999999998E-4</v>
       </c>
       <c r="S175">
@@ -14120,7 +14643,7 @@
       <c r="Q176">
         <v>39.131399999999999</v>
       </c>
-      <c r="R176">
+      <c r="R176" s="1">
         <v>1.4062499999999999E-4</v>
       </c>
       <c r="S176">
@@ -14197,7 +14720,7 @@
       <c r="Q177">
         <v>34.726999999999997</v>
       </c>
-      <c r="R177">
+      <c r="R177" s="1">
         <v>1.4689600000000001E-4</v>
       </c>
       <c r="S177">
@@ -14274,7 +14797,7 @@
       <c r="Q178">
         <v>31.338999999999999</v>
       </c>
-      <c r="R178">
+      <c r="R178" s="1">
         <v>3.1051899999999999E-4</v>
       </c>
       <c r="S178">
@@ -14351,7 +14874,7 @@
       <c r="Q179">
         <v>33.964700000000001</v>
       </c>
-      <c r="R179">
+      <c r="R179" s="1">
         <v>1.79037E-4</v>
       </c>
       <c r="S179">
@@ -14428,7 +14951,7 @@
       <c r="Q180">
         <v>67.760000000000005</v>
       </c>
-      <c r="R180">
+      <c r="R180" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="S180">
@@ -14445,6 +14968,12 @@
       </c>
       <c r="W180">
         <v>5.3</v>
+      </c>
+      <c r="X180" s="3">
+        <v>1.0481341999999999E-2</v>
+      </c>
+      <c r="Y180" s="3">
+        <v>5.0413838919999998</v>
       </c>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.2">
@@ -14499,7 +15028,7 @@
       <c r="Q181">
         <v>67.760000000000005</v>
       </c>
-      <c r="R181">
+      <c r="R181" s="1">
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="S181">
@@ -14516,6 +15045,12 @@
       </c>
       <c r="W181">
         <v>4.5</v>
+      </c>
+      <c r="X181" s="3">
+        <v>5.7044349999999999E-3</v>
+      </c>
+      <c r="Y181" s="3">
+        <v>4.4838101180000001</v>
       </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.2">
@@ -14570,7 +15105,7 @@
       <c r="Q182">
         <v>67.760000000000005</v>
       </c>
-      <c r="R182">
+      <c r="R182" s="1">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="S182">
@@ -14582,8 +15117,17 @@
       <c r="U182">
         <v>5.0999999999999996</v>
       </c>
+      <c r="V182" s="3">
+        <v>1.92884E-3</v>
+      </c>
       <c r="W182">
         <v>6.4</v>
+      </c>
+      <c r="X182" s="3">
+        <v>8.599298E-3</v>
+      </c>
+      <c r="Y182" s="3">
+        <v>6.0389687309999998</v>
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.2">
@@ -14638,7 +15182,7 @@
       <c r="Q183">
         <v>84.7</v>
       </c>
-      <c r="R183">
+      <c r="R183" s="1">
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="S183">
@@ -14655,6 +15199,12 @@
       </c>
       <c r="W183">
         <v>4.0999999999999996</v>
+      </c>
+      <c r="X183" s="3">
+        <v>5.6542980000000003E-3</v>
+      </c>
+      <c r="Y183" s="3">
+        <v>3.649</v>
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.2">
@@ -14709,7 +15259,7 @@
       <c r="Q184">
         <v>84.7</v>
       </c>
-      <c r="R184">
+      <c r="R184" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="S184">
@@ -14726,6 +15276,12 @@
       </c>
       <c r="W184">
         <v>4.4000000000000004</v>
+      </c>
+      <c r="X184" s="3">
+        <v>4.1570690000000002E-3</v>
+      </c>
+      <c r="Y184" s="3">
+        <v>3.9159999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.2">
@@ -14780,7 +15336,7 @@
       <c r="Q185">
         <v>50.82</v>
       </c>
-      <c r="R185">
+      <c r="R185" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="S185">
@@ -14797,6 +15353,12 @@
       </c>
       <c r="W185">
         <v>5.7</v>
+      </c>
+      <c r="X185" s="3">
+        <v>1.3507953E-2</v>
+      </c>
+      <c r="Y185" s="3">
+        <v>5.2493822720000001</v>
       </c>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.2">
@@ -14851,7 +15413,7 @@
       <c r="Q186">
         <v>50.82</v>
       </c>
-      <c r="R186">
+      <c r="R186" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="S186">
@@ -14863,8 +15425,17 @@
       <c r="U186">
         <v>1.4</v>
       </c>
+      <c r="V186" s="3">
+        <v>4.165696E-3</v>
+      </c>
       <c r="W186">
         <v>5.8</v>
+      </c>
+      <c r="X186" s="3">
+        <v>2.0052032000000001E-2</v>
+      </c>
+      <c r="Y186" s="3">
+        <v>5.1375974519999996</v>
       </c>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.2">
@@ -14919,7 +15490,7 @@
       <c r="Q187">
         <v>26.9346</v>
       </c>
-      <c r="R187">
+      <c r="R187" s="1">
         <v>3.7950700000000001E-4</v>
       </c>
       <c r="S187">
@@ -14936,6 +15507,12 @@
       </c>
       <c r="W187">
         <v>5.2041956799999998</v>
+      </c>
+      <c r="X187" s="3">
+        <v>2.8647762E-2</v>
+      </c>
+      <c r="Y187" s="3">
+        <v>4.4691580980000003</v>
       </c>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.2">
@@ -14990,7 +15567,7 @@
       <c r="Q188">
         <v>25.240600000000001</v>
       </c>
-      <c r="R188">
+      <c r="R188" s="1">
         <v>1.89753E-4</v>
       </c>
       <c r="S188">
@@ -15067,7 +15644,7 @@
       <c r="Q189">
         <v>35.997500000000002</v>
       </c>
-      <c r="R189">
+      <c r="R189" s="1">
         <v>7.5900999999999996E-4</v>
       </c>
       <c r="S189">
@@ -15144,7 +15721,7 @@
       <c r="Q190">
         <v>36.336300000000001</v>
       </c>
-      <c r="R190">
+      <c r="R190" s="1">
         <v>3.2950699999999999E-4</v>
       </c>
       <c r="S190">
@@ -15161,6 +15738,12 @@
       </c>
       <c r="W190">
         <v>6.4226904610000002</v>
+      </c>
+      <c r="X190" s="3">
+        <v>2.5788627000000001E-2</v>
+      </c>
+      <c r="Y190" s="3">
+        <v>5.7668706409999997</v>
       </c>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.2">
@@ -15215,7 +15798,7 @@
       <c r="Q191">
         <v>32.524799999999999</v>
       </c>
-      <c r="R191">
+      <c r="R191" s="1">
         <v>6.6412999999999997E-4</v>
       </c>
       <c r="S191">
@@ -15292,7 +15875,7 @@
       <c r="Q192">
         <v>32.270699999999998</v>
       </c>
-      <c r="R192">
+      <c r="R192" s="1">
         <v>8.5388E-4</v>
       </c>
       <c r="S192">
@@ -15369,7 +15952,7 @@
       <c r="Q193">
         <v>30.746099999999998</v>
       </c>
-      <c r="R193">
+      <c r="R193" s="1">
         <v>7.5900999999999996E-4</v>
       </c>
       <c r="S193">
@@ -15446,7 +16029,7 @@
       <c r="Q194">
         <v>24.393599999999999</v>
       </c>
-      <c r="R194">
+      <c r="R194" s="1">
         <v>3.2489999999999998E-4</v>
       </c>
       <c r="S194">
@@ -15523,7 +16106,7 @@
       <c r="Q195">
         <v>24.393599999999999</v>
       </c>
-      <c r="R195">
+      <c r="R195" s="1">
         <v>3.2490999999999998E-4</v>
       </c>
       <c r="S195">
@@ -15600,7 +16183,7 @@
       <c r="Q196">
         <v>30.062899999999999</v>
       </c>
-      <c r="R196">
+      <c r="R196" s="1">
         <v>1.9189000000000001E-4</v>
       </c>
       <c r="S196">
@@ -15677,7 +16260,7 @@
       <c r="Q197">
         <v>28.628599999999999</v>
       </c>
-      <c r="R197">
+      <c r="R197" s="1">
         <v>5.5813E-4</v>
       </c>
       <c r="S197">
@@ -15754,7 +16337,7 @@
       <c r="Q198">
         <v>24.393599999999999</v>
       </c>
-      <c r="R198">
+      <c r="R198" s="1">
         <v>2.7027000000000003E-4</v>
       </c>
       <c r="S198">
@@ -15771,6 +16354,12 @@
       </c>
       <c r="W198">
         <v>3.031539322</v>
+      </c>
+      <c r="X198" s="3">
+        <v>1.9533015000000001E-2</v>
+      </c>
+      <c r="Y198" s="3">
+        <v>2.5422724219999999</v>
       </c>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.2">
@@ -15825,7 +16414,7 @@
       <c r="Q199">
         <v>24.393599999999999</v>
       </c>
-      <c r="R199">
+      <c r="R199" s="1">
         <v>1.7696000000000001E-4</v>
       </c>
       <c r="S199">
@@ -15902,7 +16491,7 @@
       <c r="Q200">
         <v>44.467500000000001</v>
       </c>
-      <c r="R200">
+      <c r="R200" s="1">
         <v>5.2649999999999995E-4</v>
       </c>
       <c r="S200">
@@ -15979,7 +16568,7 @@
       <c r="Q201">
         <v>14.991899999999999</v>
       </c>
-      <c r="R201">
+      <c r="R201" s="1">
         <v>2.8915700000000001E-4</v>
       </c>
       <c r="S201">
@@ -16056,7 +16645,7 @@
       <c r="Q202">
         <v>14.991899999999999</v>
       </c>
-      <c r="R202">
+      <c r="R202" s="1">
         <v>9.6379999999999995E-5</v>
       </c>
       <c r="S202">
@@ -16133,7 +16722,7 @@
       <c r="Q203">
         <v>14.991899999999999</v>
       </c>
-      <c r="R203">
+      <c r="R203" s="1">
         <v>5.78313E-4</v>
       </c>
       <c r="S203">
@@ -16150,6 +16739,12 @@
       </c>
       <c r="W203">
         <v>1.667873103</v>
+      </c>
+      <c r="X203" s="3">
+        <v>2.0894342999999999E-2</v>
+      </c>
+      <c r="Y203" s="3">
+        <v>1.212361394</v>
       </c>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.2">
@@ -16204,7 +16799,7 @@
       <c r="Q204">
         <v>14.991899999999999</v>
       </c>
-      <c r="R204">
+      <c r="R204" s="1">
         <v>1.4449999999999999E-4</v>
       </c>
       <c r="S204">
@@ -16221,6 +16816,12 @@
       </c>
       <c r="W204">
         <v>1.378241185</v>
+      </c>
+      <c r="X204" s="3">
+        <v>2.5531304000000001E-2</v>
+      </c>
+      <c r="Y204" s="3">
+        <v>0.93183899400000003</v>
       </c>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.2">
@@ -16275,6 +16876,12 @@
       <c r="Q205">
         <v>19.295999999999999</v>
       </c>
+      <c r="R205" s="2">
+        <v>4.3603400000000002E-4</v>
+      </c>
+      <c r="S205" s="3">
+        <v>2.54861073</v>
+      </c>
       <c r="T205">
         <v>1.2345E-2</v>
       </c>
@@ -16346,6 +16953,12 @@
       <c r="Q206">
         <v>25.125</v>
       </c>
+      <c r="R206" s="2">
+        <v>3.5988799999999999E-4</v>
+      </c>
+      <c r="S206" s="3">
+        <v>2.685595019</v>
+      </c>
       <c r="T206">
         <v>7.71144E-3</v>
       </c>
@@ -16417,6 +17030,12 @@
       <c r="Q207">
         <v>19.966000000000001</v>
       </c>
+      <c r="R207" s="2">
+        <v>3.5156100000000002E-4</v>
+      </c>
+      <c r="S207" s="3">
+        <v>2.6253365400000002</v>
+      </c>
       <c r="T207">
         <v>1.9250000000000001E-3</v>
       </c>
@@ -16488,6 +17107,12 @@
       <c r="Q208">
         <v>21.975999999999999</v>
       </c>
+      <c r="R208" s="2">
+        <v>3.6789499999999997E-4</v>
+      </c>
+      <c r="S208" s="3">
+        <v>2.1904743340000001</v>
+      </c>
       <c r="T208">
         <v>6.10036E-3</v>
       </c>
@@ -16507,7 +17132,42 @@
         <v>5.7558100000000003</v>
       </c>
     </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A210:H212"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
